--- a/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C30BE0AE-5763-48CE-ABF0-060C6EE0499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A42306-81F8-44E0-937B-357011F8CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5CDC9043-BEE9-4E53-B5B6-B9DDE41DAF15}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DDA0D0C-9EB3-4C9F-93F8-2F22F870C59B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
   <si>
     <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -368,232 +368,232 @@
     <t>18,8%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>69,45%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>11,93%</t>
+    <t>11,88%</t>
   </si>
   <si>
     <t>21,82%</t>
@@ -602,19 +602,19 @@
     <t>22,07%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>71,82%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
   </si>
   <si>
     <t>82,55%</t>
@@ -623,226 +623,232 @@
     <t>78,18%</t>
   </si>
   <si>
-    <t>88,07%</t>
+    <t>88,12%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>66,09%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>41,71%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>58,29%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A16C64-0AFB-46A6-BF90-2487B7D4239D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D1A886-3E84-4AF4-B4EA-337583FA2FF8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2696,7 +2702,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2747,7 +2753,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2785,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508CF007-583D-4156-8F90-2742318976DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001EAEA5-1DDB-4429-82E6-1A50B55B48A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9813A3-F844-44A3-B8D9-445617D0878B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE73D396-F916-46D5-8F1A-5AF2FCB74CE5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5829,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC14AD40-3988-4EF1-B499-04230E828AD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F315A253-085C-4E86-954C-5BCD24750DFA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7226,10 +7232,10 @@
         <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7250,13 @@
         <v>2003119</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>3228</v>
@@ -7259,13 +7265,13 @@
         <v>2304419</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>5183</v>
@@ -7274,13 +7280,13 @@
         <v>4307538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A42306-81F8-44E0-937B-357011F8CE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13764C0-D72F-40CE-8182-C86BB2FD5A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DDA0D0C-9EB3-4C9F-93F8-2F22F870C59B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8B3395-E6DA-471C-927C-D20D3FD1C70C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D1A886-3E84-4AF4-B4EA-337583FA2FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA64DAB5-4C16-4539-8DBF-A062CDE4E940}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,7 +2672,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2723,7 +2723,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001EAEA5-1DDB-4429-82E6-1A50B55B48A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601EB28D-2D44-4C2C-A0D5-096038226220}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE73D396-F916-46D5-8F1A-5AF2FCB74CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6237B36-79F5-4223-9EE9-61B3242DB117}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F315A253-085C-4E86-954C-5BCD24750DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7079813-358E-4B82-8D7B-297925C5821A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F13764C0-D72F-40CE-8182-C86BB2FD5A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E15E55-D1CE-4060-8FB4-04662B3AC316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E8B3395-E6DA-471C-927C-D20D3FD1C70C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98CA5A3F-A753-44ED-B08F-2B2FAE3BCBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="270">
-  <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="268">
+  <si>
+    <t>Población con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -251,7 +251,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -362,238 +362,238 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>84,37%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>30,35%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>69,45%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>69,65%</t>
   </si>
   <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
   </si>
   <si>
     <t>28,18%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>11,93%</t>
   </si>
   <si>
     <t>21,82%</t>
@@ -602,19 +602,19 @@
     <t>22,07%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>71,82%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>82,55%</t>
@@ -623,232 +623,226 @@
     <t>78,18%</t>
   </si>
   <si>
-    <t>88,12%</t>
+    <t>88,07%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>30,29%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
   </si>
   <si>
     <t>67,04%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>66,09%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>41,71%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>58,29%</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA64DAB5-4C16-4539-8DBF-A062CDE4E940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B6081-92BB-49FA-B2B8-7E1FA4ED3622}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,7 +2666,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2702,7 +2696,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2723,7 +2717,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2753,7 +2747,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2791,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601EB28D-2D44-4C2C-A0D5-096038226220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FFCDE6-B6A5-49E5-95EF-8D8F769B3821}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6237B36-79F5-4223-9EE9-61B3242DB117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C766DA1E-CCA9-46FC-A52C-EEBF3670ABD4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7079813-358E-4B82-8D7B-297925C5821A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46F06F0-6D64-460B-BD90-78A6FA4E3CB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7232,10 +7226,10 @@
         <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7244,13 @@
         <v>2003119</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>3228</v>
@@ -7265,13 +7259,13 @@
         <v>2304419</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>5183</v>
@@ -7280,13 +7274,13 @@
         <v>4307538</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
